--- a/DeveloperLog.xlsx
+++ b/DeveloperLog.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="136">
   <si>
     <t>Delivery Date</t>
   </si>
@@ -407,12 +407,42 @@
   <si>
     <t>Create Email Bean</t>
   </si>
+  <si>
+    <t>To be focused after developing views</t>
+  </si>
+  <si>
+    <t>Replace Apache Email with Spring Boot Mail Starter</t>
+  </si>
+  <si>
+    <t>Moving to Change Request #CHG0002</t>
+  </si>
+  <si>
+    <t>InstaMojo Integration</t>
+  </si>
+  <si>
+    <t>To be focused after developing order views</t>
+  </si>
+  <si>
+    <t>To be focused after developing item views</t>
+  </si>
+  <si>
+    <t>Expose Rest API</t>
+  </si>
+  <si>
+    <t>Do url mapping</t>
+  </si>
+  <si>
+    <t>Spring Security</t>
+  </si>
+  <si>
+    <t>Payment Job Process - (Timestamp and Timestamp + 15 minutes.)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,6 +454,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -449,10 +487,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -835,11 +875,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp181.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp182.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp183.xml><?xml version="1.0" encoding="utf-8"?>
@@ -955,7 +995,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp208.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp209.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1095,11 +1135,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1111,7 +1151,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1135,7 +1175,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1311,7 +1351,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp80.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3066,14 +3106,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>147711</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="154744" cy="182880"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>302455</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2102" name="Check Box 54" hidden="1">
@@ -3119,20 +3164,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>147711</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="154744" cy="182880"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>302455</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2103" name="Check Box 55" hidden="1">
@@ -3178,20 +3228,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>147711</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="154744" cy="182880"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>302455</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2104" name="Check Box 56" hidden="1">
@@ -3237,20 +3292,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>147711</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="154744" cy="182880"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>302455</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2105" name="Check Box 57" hidden="1">
@@ -3296,20 +3356,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>147711</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="154744" cy="182880"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>302455</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2106" name="Check Box 58" hidden="1">
@@ -3355,20 +3420,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>147711</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="154744" cy="182880"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>302455</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2107" name="Check Box 59" hidden="1">
@@ -3414,20 +3484,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>147711</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="154744" cy="182880"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>302455</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2108" name="Check Box 60" hidden="1">
@@ -3473,20 +3548,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>147711</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="154744" cy="182880"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>302455</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2109" name="Check Box 61" hidden="1">
@@ -3532,20 +3612,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>147711</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="154744" cy="182880"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>302455</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2110" name="Check Box 62" hidden="1">
@@ -3591,20 +3676,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>147711</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="154744" cy="182880"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>302455</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2111" name="Check Box 63" hidden="1">
@@ -3650,20 +3740,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>147711</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="154744" cy="182880"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>302455</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2112" name="Check Box 64" hidden="1">
@@ -3709,20 +3804,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>147711</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="154744" cy="182880"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>302455</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2113" name="Check Box 65" hidden="1">
@@ -3768,20 +3868,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>147711</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="154744" cy="182880"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>302455</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2114" name="Check Box 66" hidden="1">
@@ -3827,20 +3932,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>147711</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="154744" cy="182880"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>302455</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2115" name="Check Box 67" hidden="1">
@@ -3886,20 +3996,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>147711</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="154744" cy="182880"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>302455</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2116" name="Check Box 68" hidden="1">
@@ -3945,20 +4060,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>147711</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="154744" cy="182880"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>302455</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2117" name="Check Box 69" hidden="1">
@@ -4004,20 +4124,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>147711</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="154744" cy="182880"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>302455</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2118" name="Check Box 70" hidden="1">
@@ -4063,20 +4188,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>147711</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="154744" cy="182880"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>302455</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2119" name="Check Box 71" hidden="1">
@@ -4122,20 +4252,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>147711</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="154744" cy="182880"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>302455</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2120" name="Check Box 72" hidden="1">
@@ -4181,20 +4316,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>147711</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="154744" cy="182880"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>302455</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2121" name="Check Box 73" hidden="1">
@@ -4240,20 +4380,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>147711</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="154744" cy="182880"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>302455</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2122" name="Check Box 74" hidden="1">
@@ -4299,20 +4444,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>147711</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="154744" cy="182880"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>302455</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2123" name="Check Box 75" hidden="1">
@@ -4358,20 +4508,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>147711</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="154744" cy="182880"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>302455</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2124" name="Check Box 76" hidden="1">
@@ -4417,20 +4572,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>147711</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="154744" cy="182880"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>302455</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2125" name="Check Box 77" hidden="1">
@@ -4476,20 +4636,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>147711</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="154744" cy="182880"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>302455</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2126" name="Check Box 78" hidden="1">
@@ -4535,20 +4700,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
           <xdr:colOff>147711</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="154744" cy="182880"/>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>302455</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2127" name="Check Box 79" hidden="1">
@@ -4594,7 +4764,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -16402,10 +16572,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16415,9 +16585,10 @@
     <col min="3" max="4" width="12.8984375" customWidth="1"/>
     <col min="5" max="5" width="10.296875" customWidth="1"/>
     <col min="6" max="6" width="6.796875" customWidth="1"/>
+    <col min="7" max="7" width="48.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -16437,7 +16608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -16447,8 +16618,9 @@
       <c r="D2" s="2">
         <v>43856</v>
       </c>
+      <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -16459,7 +16631,7 @@
         <v>43885</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -16470,7 +16642,7 @@
         <v>43885</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -16481,7 +16653,7 @@
         <v>43886</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -16492,7 +16664,7 @@
         <v>43887</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -16502,19 +16674,19 @@
       <c r="D7" s="2">
         <v>43887</v>
       </c>
+      <c r="G7" s="3" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>118</v>
       </c>
       <c r="D8" s="2">
         <v>43888</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -16524,8 +16696,11 @@
       <c r="D9" s="2">
         <v>43889</v>
       </c>
+      <c r="G9" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -16535,8 +16710,11 @@
       <c r="D10" s="2">
         <v>43889</v>
       </c>
+      <c r="G10" s="3" t="s">
+        <v>126</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -16546,84 +16724,116 @@
       <c r="D11" s="2">
         <v>43889</v>
       </c>
+      <c r="G11" s="3" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="B12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="2">
+        <v>43890</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
+      <c r="B13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="2">
+        <v>43891</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
+      <c r="B14" t="s">
+        <v>132</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>22</v>
       </c>
+      <c r="B15" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
+      <c r="B16" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
+      <c r="B17" t="s">
+        <v>135</v>
+      </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -19668,7 +19878,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20997,7 +21207,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21043,6 +21253,12 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43892</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">

--- a/DeveloperLog.xlsx
+++ b/DeveloperLog.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Repository\festiv-food\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08674362-B2D5-4E46-8393-59106AFCD355}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22265" windowHeight="12650"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Developments" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="140">
   <si>
     <t>Delivery Date</t>
   </si>
@@ -396,9 +397,6 @@
     <t>Use Criteria instead of QueryText</t>
   </si>
   <si>
-    <t>Add Rating Model, dao and service</t>
-  </si>
-  <si>
     <t>Primary Key Replace numeric with UUID</t>
   </si>
   <si>
@@ -423,9 +421,6 @@
     <t>To be focused after developing order views</t>
   </si>
   <si>
-    <t>To be focused after developing item views</t>
-  </si>
-  <si>
     <t>Expose Rest API</t>
   </si>
   <si>
@@ -437,11 +432,29 @@
   <si>
     <t>Payment Job Process - (Timestamp and Timestamp + 15 minutes.)</t>
   </si>
+  <si>
+    <t>Middleware pom.wml packing warning. Fix it.</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Add Rating Model, dao and service, service impl</t>
+  </si>
+  <si>
+    <t>Add Link Model, dao and service, service impl</t>
+  </si>
+  <si>
+    <t>Create webapp for testing backend for now.</t>
+  </si>
+  <si>
+    <t>Create Google forms for user feedback</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -515,7 +528,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp100.xml><?xml version="1.0" encoding="utf-8"?>
@@ -999,7 +1012,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp209.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1159,7 +1172,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1461,6 +1474,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2050"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1526,6 +1542,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2051"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -1590,6 +1609,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2052"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -1654,6 +1676,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2053"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -1718,6 +1743,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2054"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -1782,6 +1810,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2055"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -1846,6 +1877,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2056"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -1910,6 +1944,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2057"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -1974,6 +2011,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2058"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2038,6 +2078,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2059"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2102,6 +2145,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2060"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2166,6 +2212,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2061"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2230,6 +2279,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2062"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2294,6 +2346,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2063"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2358,6 +2413,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2064"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2422,6 +2480,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2065"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2486,6 +2547,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2066"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2550,6 +2614,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2067"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2614,6 +2681,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2068"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2678,6 +2748,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2069"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2742,6 +2815,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2070"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2806,6 +2882,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2071"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2870,6 +2949,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2072"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2934,6 +3016,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2073"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -2998,6 +3083,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2074"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3062,6 +3150,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2075"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3126,6 +3217,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2102"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3190,6 +3284,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2103"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3254,6 +3351,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2104"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3318,6 +3418,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2105"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3382,6 +3485,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2106"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3446,6 +3552,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2107"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3510,6 +3619,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2108"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3574,6 +3686,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2109"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3638,6 +3753,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2110"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3702,6 +3820,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2111"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3766,6 +3887,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2112"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3830,6 +3954,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2113"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3894,6 +4021,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2114"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -3958,6 +4088,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2115"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -4022,6 +4155,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2116"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -4086,6 +4222,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2117"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -4150,6 +4289,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2118"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -4214,6 +4356,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2119"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -4278,6 +4423,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2120"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -4342,6 +4490,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2121"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -4406,6 +4557,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2122"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -4470,6 +4624,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2123"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -4534,6 +4691,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2124"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -4598,6 +4758,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2125"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -4662,6 +4825,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2126"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -4726,6 +4892,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s2127"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F080000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -4795,6 +4964,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3073"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000010C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -4859,6 +5031,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3074"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000020C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -4923,6 +5098,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3075"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000030C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -4987,6 +5165,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3076"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000040C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -5051,6 +5232,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3077"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000050C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -5115,6 +5299,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3078"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000060C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -5179,6 +5366,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3079"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000070C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -5243,6 +5433,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3080"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000080C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -5307,6 +5500,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3081"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000090C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -5371,6 +5567,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3082"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A0C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -5435,6 +5634,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3083"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B0C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -5499,6 +5701,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3084"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C0C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -5563,6 +5768,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3085"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D0C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -5627,6 +5835,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3086"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E0C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -5691,6 +5902,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3087"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F0C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -5755,6 +5969,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3088"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000100C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -5819,6 +6036,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3089"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000110C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -5883,6 +6103,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3090"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000120C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -5947,6 +6170,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3091"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000130C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -6011,6 +6237,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3092"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000140C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -6075,6 +6304,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3093"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000150C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -6139,6 +6371,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3094"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000160C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -6203,6 +6438,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3095"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000170C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -6267,6 +6505,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3096"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000180C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -6331,6 +6572,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3097"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000190C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -6395,6 +6639,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3098"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A0C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -6459,6 +6706,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3099"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B0C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -6523,6 +6773,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3100"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C0C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -6587,6 +6840,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3101"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D0C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -6651,6 +6907,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3102"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E0C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -6715,6 +6974,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3103"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F0C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -6779,6 +7041,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3104"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000200C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -6843,6 +7108,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3105"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000210C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -6907,6 +7175,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3106"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000220C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -6971,6 +7242,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3107"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000230C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -7035,6 +7309,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3108"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000240C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -7099,6 +7376,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3109"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000250C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -7163,6 +7443,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3110"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000260C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -7227,6 +7510,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3111"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000270C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -7291,6 +7577,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3112"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000280C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -7355,6 +7644,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3113"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000290C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -7419,6 +7711,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3114"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A0C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -7483,6 +7778,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3115"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B0C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -7547,6 +7845,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3116"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C0C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -7611,6 +7912,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3117"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D0C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -7675,6 +7979,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3118"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E0C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -7739,6 +8046,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3119"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F0C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -7803,6 +8113,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3120"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000300C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -7867,6 +8180,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3121"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000310C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -7931,6 +8247,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3122"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000320C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -7995,6 +8314,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3123"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000330C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -8059,6 +8381,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3124"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000340C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -8123,6 +8448,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3125"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000350C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -8187,6 +8515,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3126"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000360C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -8251,6 +8582,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3127"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000370C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -8315,6 +8649,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3128"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000380C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -8379,6 +8716,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3129"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000390C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -8443,6 +8783,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3130"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003A0C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -8507,6 +8850,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3131"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003B0C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -8571,6 +8917,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3132"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003C0C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -8635,6 +8984,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3133"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003D0C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -8699,6 +9051,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3134"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003E0C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -8763,6 +9118,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3135"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003F0C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -8827,6 +9185,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3136"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000400C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -8891,6 +9252,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3137"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000410C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -8955,6 +9319,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3138"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000420C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -9019,6 +9386,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3139"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000430C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -9083,6 +9453,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3140"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000440C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -9147,6 +9520,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3141"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000450C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -9211,6 +9587,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3142"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000460C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -9275,6 +9654,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3143"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000470C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -9339,6 +9721,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3144"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000480C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -9403,6 +9788,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3145"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000490C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -9467,6 +9855,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3146"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004A0C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -9531,6 +9922,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3147"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004B0C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -9595,6 +9989,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3148"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004C0C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -9664,6 +10061,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -9728,6 +10128,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -9792,6 +10195,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -9856,6 +10262,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -9920,6 +10329,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -9984,6 +10396,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -10048,6 +10463,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -10112,6 +10530,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -10176,6 +10597,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -10240,6 +10664,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -10304,6 +10731,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -10368,6 +10798,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1036"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -10432,6 +10865,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -10496,6 +10932,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1038"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -10560,6 +10999,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1039"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -10624,6 +11066,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1040"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -10688,6 +11133,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1041"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -10752,6 +11200,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1042"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -10816,6 +11267,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1043"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -10880,6 +11334,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1044"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -10944,6 +11401,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1045"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -11008,6 +11468,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1046"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -11072,6 +11535,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1047"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -11136,6 +11602,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1048"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -11200,6 +11669,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1049"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -11264,6 +11736,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1050"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -11328,6 +11803,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1051"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -11392,6 +11870,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1052"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -11456,6 +11937,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1053"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -11520,6 +12004,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1054"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -11584,6 +12071,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1055"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -11648,6 +12138,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1056"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -11712,6 +12205,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1057"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -11776,6 +12272,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1058"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000022040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -11840,6 +12339,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1059"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000023040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -11904,6 +12406,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1060"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000024040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -11968,6 +12473,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1061"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000025040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -12032,6 +12540,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1062"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000026040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -12096,6 +12607,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1063"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000027040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -12160,6 +12674,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1064"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000028040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -12224,6 +12741,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1065"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000029040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -12288,6 +12808,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1066"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002A040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -12352,6 +12875,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1067"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -12416,6 +12942,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1068"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002C040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -12480,6 +13009,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1069"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002D040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -12544,6 +13076,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1070"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -12608,6 +13143,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1071"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002F040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -12672,6 +13210,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1072"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000030040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -12736,6 +13277,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1073"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000031040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -12800,6 +13344,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1074"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000032040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -12864,6 +13411,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1075"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -12928,6 +13478,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1076"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -12997,6 +13550,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5121"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -13061,6 +13617,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5122"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -13125,6 +13684,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5123"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -13189,6 +13751,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5124"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -13253,6 +13818,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5125"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -13317,6 +13885,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5126"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -13381,6 +13952,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5127"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -13445,6 +14019,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5128"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -13509,6 +14086,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5129"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -13573,6 +14153,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5130"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -13637,6 +14220,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5131"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -13701,6 +14287,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5132"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -13765,6 +14354,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5133"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -13829,6 +14421,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5134"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -13893,6 +14488,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5135"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -13957,6 +14555,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5136"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -14021,6 +14622,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5137"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -14085,6 +14689,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5138"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -14149,6 +14756,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5139"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -14213,6 +14823,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5140"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -14277,6 +14890,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5141"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -14341,6 +14957,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5142"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -14405,6 +15024,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5143"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000017140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -14469,6 +15091,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5144"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -14533,6 +15158,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5145"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000019140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -14597,6 +15225,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5146"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001A140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -14661,6 +15292,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5147"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001B140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -14725,6 +15359,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5148"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -14789,6 +15426,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5149"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001D140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -14853,6 +15493,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5150"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -14917,6 +15560,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5151"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001F140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -14981,6 +15627,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5152"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000020140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -15045,6 +15694,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5153"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000021140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -15109,6 +15761,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5154"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000022140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -15173,6 +15828,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5155"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000023140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -15237,6 +15895,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5156"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000024140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -15301,6 +15962,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5157"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000025140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -15365,6 +16029,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5158"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000026140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -15429,6 +16096,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5159"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000027140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -15493,6 +16163,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5160"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000028140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -15557,6 +16230,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5161"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000029140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -15621,6 +16297,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5162"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002A140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -15685,6 +16364,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5163"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002B140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -15749,6 +16431,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5164"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002C140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -15813,6 +16498,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5165"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002D140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -15877,6 +16565,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5166"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002E140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -15941,6 +16632,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5167"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00002F140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -16005,6 +16699,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5168"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000030140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -16069,6 +16766,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5169"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000031140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -16133,6 +16833,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5170"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000032140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -16197,6 +16900,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5171"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000033140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -16260,6 +16966,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5172"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000034140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -16568,14 +17277,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16602,7 +17311,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -16675,7 +17384,7 @@
         <v>43887</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -16691,13 +17400,13 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D9" s="2">
         <v>43889</v>
       </c>
       <c r="G9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -16711,7 +17420,7 @@
         <v>43889</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -16719,27 +17428,25 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="D11" s="2">
         <v>43889</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>131</v>
-      </c>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D12" s="2">
         <v>43890</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -16753,7 +17460,7 @@
         <v>43891</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -16761,7 +17468,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -16769,7 +17476,7 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -16777,63 +17484,72 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
+      <c r="B18" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
+      <c r="B19" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -17997,14 +18713,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18032,7 +18748,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -18058,6 +18774,12 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>86</v>
+      </c>
+      <c r="B3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -19871,7 +20593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -19905,7 +20627,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -21200,14 +21922,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21233,7 +21955,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -21244,7 +21966,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D2" s="2">
         <v>43891</v>
@@ -21255,7 +21977,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" s="2">
         <v>43892</v>
@@ -21265,10 +21987,22 @@
       <c r="A4" t="s">
         <v>37</v>
       </c>
+      <c r="B4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43912</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -22539,7 +23273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
